--- a/nr-update/ig/StructureDefinition-as-dp-organization.xlsx
+++ b/nr-update/ig/StructureDefinition-as-dp-organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11036" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11036" uniqueCount="945">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-26T17:24:24+00:00</t>
+    <t>2025-01-21T08:42:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2424,7 +2424,13 @@
 </t>
   </si>
   <si>
-    <t>Details of a Technology mediated contact point (phone, fax, email, etc.)</t>
+    <t>Les BALs MSS de type ORG ou APP rattachées à une personne morale responsable de l’accès et de l’usage de la BAL (boiteLettreMSS).</t>
+  </si>
+  <si>
+    <t>EntiteJuridique.boiteLettreMSS</t>
+  </si>
+  <si>
+    <t>EntiteGeographique.boiteLettreMSS</t>
   </si>
   <si>
     <t>Organization.telecom:mailbox-mss.id</t>
@@ -2913,6 +2919,9 @@
   </si>
   <si>
     <t>Organization.contact.telecom</t>
+  </si>
+  <si>
+    <t>Details of a Technology mediated contact point (phone, fax, email, etc.)</t>
   </si>
   <si>
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
@@ -29838,10 +29847,10 @@
         <v>719</v>
       </c>
       <c r="AK221" t="s" s="2">
-        <v>79</v>
+        <v>776</v>
       </c>
       <c r="AL221" t="s" s="2">
-        <v>79</v>
+        <v>777</v>
       </c>
       <c r="AM221" t="s" s="2">
         <v>722</v>
@@ -29858,7 +29867,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>725</v>
@@ -29976,7 +29985,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>726</v>
@@ -30094,7 +30103,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>726</v>
@@ -30214,10 +30223,10 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -30332,10 +30341,10 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -30450,10 +30459,10 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -30493,7 +30502,7 @@
       </c>
       <c r="Q227" s="2"/>
       <c r="R227" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="S227" t="s" s="2">
         <v>79</v>
@@ -30570,10 +30579,10 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -30614,7 +30623,7 @@
         <v>79</v>
       </c>
       <c r="S228" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="T228" t="s" s="2">
         <v>79</v>
@@ -30633,7 +30642,7 @@
       </c>
       <c r="Y228" s="2"/>
       <c r="Z228" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="AA228" t="s" s="2">
         <v>79</v>
@@ -30686,13 +30695,13 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>726</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="D229" t="s" s="2">
         <v>79</v>
@@ -30714,13 +30723,13 @@
         <v>79</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="N229" s="2"/>
       <c r="O229" s="2"/>
@@ -30806,10 +30815,10 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -30924,10 +30933,10 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -31044,13 +31053,13 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="D232" t="s" s="2">
         <v>79</v>
@@ -31075,7 +31084,7 @@
         <v>112</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="M232" t="s" s="2">
         <v>206</v>
@@ -31164,10 +31173,10 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -31282,10 +31291,10 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -31400,10 +31409,10 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -31443,7 +31452,7 @@
       </c>
       <c r="Q235" s="2"/>
       <c r="R235" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="S235" t="s" s="2">
         <v>79</v>
@@ -31520,10 +31529,10 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -31583,7 +31592,7 @@
       </c>
       <c r="Y236" s="2"/>
       <c r="Z236" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="AA236" t="s" s="2">
         <v>79</v>
@@ -31636,10 +31645,10 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C237" t="s" s="2">
         <v>214</v>
@@ -31667,7 +31676,7 @@
         <v>112</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="M237" t="s" s="2">
         <v>206</v>
@@ -31756,10 +31765,10 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -31874,10 +31883,10 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -31992,10 +32001,10 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -32112,10 +32121,10 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -32230,13 +32239,13 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="D242" t="s" s="2">
         <v>79</v>
@@ -32350,10 +32359,10 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" t="s" s="2">
@@ -32468,10 +32477,10 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -32586,10 +32595,10 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -32629,7 +32638,7 @@
       </c>
       <c r="Q245" s="2"/>
       <c r="R245" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="S245" t="s" s="2">
         <v>79</v>
@@ -32706,10 +32715,10 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" t="s" s="2">
@@ -32824,13 +32833,13 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C247" t="s" s="2">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="D247" t="s" s="2">
         <v>79</v>
@@ -32855,7 +32864,7 @@
         <v>112</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="M247" t="s" s="2">
         <v>206</v>
@@ -32944,10 +32953,10 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" t="s" s="2">
@@ -33062,10 +33071,10 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
@@ -33180,10 +33189,10 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s" s="2">
@@ -33223,7 +33232,7 @@
       </c>
       <c r="Q250" s="2"/>
       <c r="R250" t="s" s="2">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="S250" t="s" s="2">
         <v>79</v>
@@ -33300,10 +33309,10 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" t="s" s="2">
@@ -33418,13 +33427,13 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="D252" t="s" s="2">
         <v>79</v>
@@ -33538,10 +33547,10 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" t="s" s="2">
@@ -33656,10 +33665,10 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="C254" s="2"/>
       <c r="D254" t="s" s="2">
@@ -33774,10 +33783,10 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" t="s" s="2">
@@ -33817,7 +33826,7 @@
       </c>
       <c r="Q255" s="2"/>
       <c r="R255" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="S255" t="s" s="2">
         <v>79</v>
@@ -33894,10 +33903,10 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" t="s" s="2">
@@ -34012,13 +34021,13 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="D257" t="s" s="2">
         <v>79</v>
@@ -34043,7 +34052,7 @@
         <v>112</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="M257" t="s" s="2">
         <v>206</v>
@@ -34132,10 +34141,10 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" t="s" s="2">
@@ -34250,10 +34259,10 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" t="s" s="2">
@@ -34368,10 +34377,10 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" t="s" s="2">
@@ -34411,7 +34420,7 @@
       </c>
       <c r="Q260" s="2"/>
       <c r="R260" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="S260" t="s" s="2">
         <v>79</v>
@@ -34488,10 +34497,10 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" t="s" s="2">
@@ -34606,13 +34615,13 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C262" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="D262" t="s" s="2">
         <v>79</v>
@@ -34637,7 +34646,7 @@
         <v>112</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="M262" t="s" s="2">
         <v>206</v>
@@ -34726,10 +34735,10 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" t="s" s="2">
@@ -34844,10 +34853,10 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" t="s" s="2">
@@ -34962,10 +34971,10 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" t="s" s="2">
@@ -35005,7 +35014,7 @@
       </c>
       <c r="Q265" s="2"/>
       <c r="R265" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="S265" t="s" s="2">
         <v>79</v>
@@ -35082,10 +35091,10 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" t="s" s="2">
@@ -35200,10 +35209,10 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" t="s" s="2">
@@ -35243,7 +35252,7 @@
       </c>
       <c r="Q267" s="2"/>
       <c r="R267" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="S267" t="s" s="2">
         <v>79</v>
@@ -35320,10 +35329,10 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" t="s" s="2">
@@ -35346,7 +35355,7 @@
         <v>79</v>
       </c>
       <c r="K268" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="L268" t="s" s="2">
         <v>235</v>
@@ -35438,7 +35447,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B269" t="s" s="2">
         <v>732</v>
@@ -35482,7 +35491,7 @@
         <v>79</v>
       </c>
       <c r="S269" t="s" s="2">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="T269" t="s" s="2">
         <v>79</v>
@@ -35556,7 +35565,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B270" t="s" s="2">
         <v>742</v>
@@ -35585,7 +35594,7 @@
         <v>105</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="M270" t="s" s="2">
         <v>744</v>
@@ -35678,7 +35687,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B271" t="s" s="2">
         <v>750</v>
@@ -35713,7 +35722,7 @@
         <v>752</v>
       </c>
       <c r="N271" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="O271" t="s" s="2">
         <v>754</v>
@@ -35800,7 +35809,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B272" t="s" s="2">
         <v>761</v>
@@ -35920,7 +35929,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="B273" t="s" s="2">
         <v>767</v>
@@ -36038,10 +36047,10 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" t="s" s="2">
@@ -36064,19 +36073,19 @@
         <v>79</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="M274" t="s" s="2">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="N274" t="s" s="2">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="O274" t="s" s="2">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="P274" t="s" s="2">
         <v>79</v>
@@ -36125,7 +36134,7 @@
         <v>79</v>
       </c>
       <c r="AF274" t="s" s="2">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="AG274" t="s" s="2">
         <v>80</v>
@@ -36137,22 +36146,22 @@
         <v>212</v>
       </c>
       <c r="AJ274" t="s" s="2">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="AK274" t="s" s="2">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="AL274" t="s" s="2">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="AM274" t="s" s="2">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="AN274" t="s" s="2">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="AO274" t="s" s="2">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="AP274" t="s" s="2">
         <v>79</v>
@@ -36160,10 +36169,10 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" t="s" s="2">
@@ -36186,17 +36195,17 @@
         <v>92</v>
       </c>
       <c r="K275" t="s" s="2">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="N275" s="2"/>
       <c r="O275" t="s" s="2">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="P275" t="s" s="2">
         <v>79</v>
@@ -36245,7 +36254,7 @@
         <v>79</v>
       </c>
       <c r="AF275" t="s" s="2">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="AG275" t="s" s="2">
         <v>80</v>
@@ -36269,7 +36278,7 @@
         <v>547</v>
       </c>
       <c r="AN275" t="s" s="2">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="AO275" t="s" s="2">
         <v>109</v>
@@ -36280,10 +36289,10 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" t="s" s="2">
@@ -36398,10 +36407,10 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" t="s" s="2">
@@ -36518,10 +36527,10 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" t="s" s="2">
@@ -36547,13 +36556,13 @@
         <v>105</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="O278" s="2"/>
       <c r="P278" t="s" s="2">
@@ -36603,7 +36612,7 @@
         <v>79</v>
       </c>
       <c r="AF278" t="s" s="2">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="AG278" t="s" s="2">
         <v>80</v>
@@ -36612,7 +36621,7 @@
         <v>91</v>
       </c>
       <c r="AI278" t="s" s="2">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="AJ278" t="s" s="2">
         <v>103</v>
@@ -36638,10 +36647,10 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" t="s" s="2">
@@ -36667,13 +36676,13 @@
         <v>138</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="N279" t="s" s="2">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="O279" s="2"/>
       <c r="P279" t="s" s="2">
@@ -36721,7 +36730,7 @@
         <v>79</v>
       </c>
       <c r="AF279" t="s" s="2">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="AG279" t="s" s="2">
         <v>80</v>
@@ -36756,10 +36765,10 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" t="s" s="2">
@@ -36785,13 +36794,13 @@
         <v>307</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="N280" t="s" s="2">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="O280" s="2"/>
       <c r="P280" t="s" s="2">
@@ -36841,7 +36850,7 @@
         <v>79</v>
       </c>
       <c r="AF280" t="s" s="2">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="AG280" t="s" s="2">
         <v>80</v>
@@ -36865,7 +36874,7 @@
         <v>79</v>
       </c>
       <c r="AN280" t="s" s="2">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="AO280" t="s" s="2">
         <v>79</v>
@@ -36876,10 +36885,10 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" t="s" s="2">
@@ -36905,13 +36914,13 @@
         <v>105</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="N281" t="s" s="2">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="O281" s="2"/>
       <c r="P281" t="s" s="2">
@@ -36961,7 +36970,7 @@
         <v>79</v>
       </c>
       <c r="AF281" t="s" s="2">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="AG281" t="s" s="2">
         <v>80</v>
@@ -36996,10 +37005,10 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="C282" s="2"/>
       <c r="D282" t="s" s="2">
@@ -37022,19 +37031,19 @@
         <v>79</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="N282" t="s" s="2">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="O282" t="s" s="2">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="P282" t="s" s="2">
         <v>79</v>
@@ -37083,7 +37092,7 @@
         <v>79</v>
       </c>
       <c r="AF282" t="s" s="2">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="AG282" t="s" s="2">
         <v>80</v>
@@ -37107,7 +37116,7 @@
         <v>79</v>
       </c>
       <c r="AN282" t="s" s="2">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="AO282" t="s" s="2">
         <v>79</v>
@@ -37118,10 +37127,10 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" t="s" s="2">
@@ -37236,10 +37245,10 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" t="s" s="2">
@@ -37356,14 +37365,14 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" t="s" s="2">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="E285" s="2"/>
       <c r="F285" t="s" s="2">
@@ -37385,10 +37394,10 @@
         <v>112</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="M285" t="s" s="2">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="N285" t="s" s="2">
         <v>115</v>
@@ -37443,7 +37452,7 @@
         <v>79</v>
       </c>
       <c r="AF285" t="s" s="2">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="AG285" t="s" s="2">
         <v>80</v>
@@ -37478,10 +37487,10 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" t="s" s="2">
@@ -37507,14 +37516,14 @@
         <v>331</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="M286" t="s" s="2">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="N286" s="2"/>
       <c r="O286" t="s" s="2">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="P286" t="s" s="2">
         <v>79</v>
@@ -37542,10 +37551,10 @@
         <v>162</v>
       </c>
       <c r="Y286" t="s" s="2">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="Z286" t="s" s="2">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="AA286" t="s" s="2">
         <v>79</v>
@@ -37563,7 +37572,7 @@
         <v>79</v>
       </c>
       <c r="AF286" t="s" s="2">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="AG286" t="s" s="2">
         <v>80</v>
@@ -37587,7 +37596,7 @@
         <v>79</v>
       </c>
       <c r="AN286" t="s" s="2">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="AO286" t="s" s="2">
         <v>79</v>
@@ -37598,10 +37607,10 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" t="s" s="2">
@@ -37624,17 +37633,17 @@
         <v>79</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="N287" s="2"/>
       <c r="O287" t="s" s="2">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="P287" t="s" s="2">
         <v>79</v>
@@ -37683,7 +37692,7 @@
         <v>79</v>
       </c>
       <c r="AF287" t="s" s="2">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="AG287" t="s" s="2">
         <v>80</v>
@@ -37704,10 +37713,10 @@
         <v>79</v>
       </c>
       <c r="AM287" t="s" s="2">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="AN287" t="s" s="2">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="AO287" t="s" s="2">
         <v>79</v>
@@ -37718,10 +37727,10 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" t="s" s="2">
@@ -37747,14 +37756,14 @@
         <v>713</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>775</v>
+        <v>933</v>
       </c>
       <c r="M288" t="s" s="2">
         <v>715</v>
       </c>
       <c r="N288" s="2"/>
       <c r="O288" t="s" s="2">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="P288" t="s" s="2">
         <v>79</v>
@@ -37803,7 +37812,7 @@
         <v>79</v>
       </c>
       <c r="AF288" t="s" s="2">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="AG288" t="s" s="2">
         <v>80</v>
@@ -37815,7 +37824,7 @@
         <v>212</v>
       </c>
       <c r="AJ288" t="s" s="2">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="AK288" t="s" s="2">
         <v>79</v>
@@ -37838,10 +37847,10 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" t="s" s="2">
@@ -37864,19 +37873,19 @@
         <v>79</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="N289" t="s" s="2">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="O289" t="s" s="2">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="P289" t="s" s="2">
         <v>79</v>
@@ -37925,7 +37934,7 @@
         <v>79</v>
       </c>
       <c r="AF289" t="s" s="2">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="AG289" t="s" s="2">
         <v>80</v>
@@ -37946,13 +37955,13 @@
         <v>79</v>
       </c>
       <c r="AM289" t="s" s="2">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="AN289" t="s" s="2">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="AO289" t="s" s="2">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="AP289" t="s" s="2">
         <v>79</v>
@@ -37960,10 +37969,10 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" t="s" s="2">
@@ -37986,17 +37995,17 @@
         <v>79</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="N290" s="2"/>
       <c r="O290" t="s" s="2">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="P290" t="s" s="2">
         <v>79</v>
@@ -38045,7 +38054,7 @@
         <v>79</v>
       </c>
       <c r="AF290" t="s" s="2">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="AG290" t="s" s="2">
         <v>80</v>

--- a/nr-update/ig/StructureDefinition-as-dp-organization.xlsx
+++ b/nr-update/ig/StructureDefinition-as-dp-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T08:42:48+00:00</t>
+    <t>2025-01-21T08:47:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
